--- a/data/partner_466/txn_29/program_1565159/level_4.xlsx
+++ b/data/partner_466/txn_29/program_1565159/level_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzhu/Downloads/Bread/Loyalty/Loyalty_Control/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzhu/Downloads/Bread/Loyalty/Loyalty_Control/data/partner_466/txn_29/program_1565159/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87DF1F48-2A4B-CA41-B2F0-B681DA803AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3536A2-7D4D-3743-8A98-57030EADD81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,18 +60,12 @@
     <t xml:space="preserve">          merchantSystemIdentifier</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>N0.0.6.1.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">          merchantPrincipalIdentifier</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>N0.0.11.1.0.0</t>
   </si>
   <si>
@@ -84,18 +78,12 @@
     <t xml:space="preserve">        transactionCode</t>
   </si>
   <si>
-    <t>253</t>
-  </si>
-  <si>
     <t>N0.0.21.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">        merchantCategoryCode</t>
   </si>
   <si>
-    <t>5511</t>
-  </si>
-  <si>
     <t>N0.0.26.1.0.0</t>
   </si>
   <si>
@@ -106,6 +94,18 @@
   </si>
   <si>
     <t xml:space="preserve">          associatedMerchantPrinNumber</t>
+  </si>
+  <si>
+    <t>'0010'</t>
+  </si>
+  <si>
+    <t>'0000'</t>
+  </si>
+  <si>
+    <t>'253'</t>
+  </si>
+  <si>
+    <t>'5511'</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -172,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +481,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -504,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -525,8 +528,8 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -534,86 +537,86 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/partner_466/txn_29/program_1565159/level_4.xlsx
+++ b/data/partner_466/txn_29/program_1565159/level_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzhu/Downloads/Bread/Loyalty/Loyalty_Control/data/partner_466/txn_29/program_1565159/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3536A2-7D4D-3743-8A98-57030EADD81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87B3F5A-3ADB-E34D-AA00-7242DE029EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>N0</t>
   </si>
   <si>
-    <t>earn_rule_outcome</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>'5511'</t>
+  </si>
+  <si>
+    <t>earn_rule_outcome_1565159</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -512,111 +512,111 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
